--- a/new customer page..xlsx
+++ b/new customer page..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>Created by</t>
   </si>
   <si>
-    <t>Tejasree Ayithi and Pujitha Reddy</t>
+    <t xml:space="preserve">Tejasree Ayithi </t>
   </si>
   <si>
     <t>Date of Submission</t>
@@ -677,6 +677,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Customer id:-60721                       customer name:- Rocky        gender:- male                              date of birth:- 2002-12-03           address:-jung junction             city:- Vizag                             state:- Andhra Pradesh          pincode:- 530044                           mobile number:- 8383493449       email:- rocky45</t>
     </r>
     <r>
@@ -740,6 +747,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">INVALID INPUTS:-   </t>
     </r>
     <r>
@@ -2021,22 +2035,22 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6636363636364" customWidth="1"/>
-    <col min="2" max="2" width="28.2181818181818" customWidth="1"/>
-    <col min="3" max="3" width="44.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="35.6636363636364" customWidth="1"/>
+    <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="44.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="27.3363636363636" customWidth="1"/>
-    <col min="7" max="7" width="23.1090909090909" customWidth="1"/>
+    <col min="6" max="6" width="27.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="23.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="16.3363636363636" customWidth="1"/>
-    <col min="10" max="10" width="31.8909090909091" customWidth="1"/>
+    <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="31.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2113,7 +2127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="87" spans="1:9">
+    <row r="11" ht="86.4" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2142,7 +2156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="87" spans="1:10">
+    <row r="12" ht="86.4" spans="1:10">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2174,7 +2188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" ht="145" spans="1:10">
+    <row r="13" ht="144" spans="1:10">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="87" spans="1:10">
+    <row r="14" ht="86.4" spans="1:10">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2236,7 +2250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="87" spans="1:10">
+    <row r="15" ht="86.4" spans="1:10">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2268,7 +2282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="87" spans="1:10">
+    <row r="16" ht="86.4" spans="1:10">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2300,7 +2314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="87" spans="1:9">
+    <row r="17" ht="86.4" spans="1:9">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2329,7 +2343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" ht="87" spans="1:10">
+    <row r="18" ht="86.4" spans="1:10">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2373,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" ht="87" spans="1:10">
+    <row r="19" ht="86.4" spans="1:10">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2391,7 +2405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" ht="87" spans="1:10">
+    <row r="20" ht="86.4" spans="1:10">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2423,7 +2437,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" ht="87" spans="1:10">
+    <row r="21" ht="86.4" spans="1:10">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2453,7 +2467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" ht="159.5" spans="1:9">
+    <row r="22" ht="144" spans="1:9">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2482,7 +2496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" ht="159.5" spans="1:10">
+    <row r="23" ht="158.4" spans="1:10">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2512,7 +2526,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" ht="348" spans="1:9">
+    <row r="24" ht="331.2" spans="1:9">
       <c r="A24" t="s">
         <v>18</v>
       </c>

--- a/new customer page..xlsx
+++ b/new customer page..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>Created by</t>
   </si>
   <si>
-    <t xml:space="preserve">Tejasree Ayithi </t>
+    <t>Pujitha Reddy</t>
   </si>
   <si>
     <t>Date of Submission</t>
@@ -2039,18 +2039,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="44.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="20.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="28.2181818181818" customWidth="1"/>
+    <col min="3" max="3" width="44.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="35.6636363636364" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="27.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="23.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="27.3363636363636" customWidth="1"/>
+    <col min="7" max="7" width="23.1090909090909" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="31.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="16.3363636363636" customWidth="1"/>
+    <col min="10" max="10" width="31.8909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="86.4" spans="1:9">
+    <row r="11" ht="87" spans="1:9">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="86.4" spans="1:10">
+    <row r="12" ht="87" spans="1:10">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" ht="144" spans="1:10">
+    <row r="13" ht="145" spans="1:10">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="86.4" spans="1:10">
+    <row r="14" ht="87" spans="1:10">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="86.4" spans="1:10">
+    <row r="15" ht="87" spans="1:10">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="86.4" spans="1:10">
+    <row r="16" ht="87" spans="1:10">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="86.4" spans="1:9">
+    <row r="17" ht="87" spans="1:9">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" ht="86.4" spans="1:10">
+    <row r="18" ht="87" spans="1:10">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" ht="86.4" spans="1:10">
+    <row r="19" ht="87" spans="1:10">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" ht="86.4" spans="1:10">
+    <row r="20" ht="87" spans="1:10">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" ht="86.4" spans="1:10">
+    <row r="21" ht="87" spans="1:10">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" ht="144" spans="1:9">
+    <row r="22" ht="159.5" spans="1:9">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" ht="158.4" spans="1:10">
+    <row r="23" ht="159.5" spans="1:10">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" ht="331.2" spans="1:9">
+    <row r="24" ht="348" spans="1:9">
       <c r="A24" t="s">
         <v>18</v>
       </c>
